--- a/biology/Médecine/Médaille_de_l'Institut_Pasteur_et_de_l'UNESCO/Médaille_de_l'Institut_Pasteur_et_de_l'UNESCO.xlsx
+++ b/biology/Médecine/Médaille_de_l'Institut_Pasteur_et_de_l'UNESCO/Médaille_de_l'Institut_Pasteur_et_de_l'UNESCO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_de_l%27Institut_Pasteur_et_de_l%27UNESCO</t>
+          <t>Médaille_de_l'Institut_Pasteur_et_de_l'UNESCO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médaille de l'Institut Pasteur et de l'UNESCO est un prix scientifique bis-annuel remis conjointement par l'Organisation des Nations unies pour l'éducation, la science et la culture et par l'Institut Pasteur depuis 1995. Il récompense la recherche scientifique qui permet de contribuer  à l'amélioration de la condition humaine dans les champs de la médecine, la fermentation, l'agriculture et la nourriture.
 Il fut créé en 1995 pour le centenaire de la mort de Louis Pasteur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_de_l%27Institut_Pasteur_et_de_l%27UNESCO</t>
+          <t>Médaille_de_l'Institut_Pasteur_et_de_l'UNESCO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1995 : Natt Bhamarapravati, Thaïlande;
 1997 : Esther Orozco, Mexique;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_de_l%27Institut_Pasteur_et_de_l%27UNESCO</t>
+          <t>Médaille_de_l'Institut_Pasteur_et_de_l'UNESCO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">les lauréats sur le site de l'UNESCO.
  Portail de l’Organisation des Nations unies   Portail de la médecine   Portail de l’agriculture et l’agronomie   Portail des récompenses et distinctions                  </t>
